--- a/Code/Results/Cases/Case_3_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.925785015812266</v>
+        <v>0.6148512105072825</v>
       </c>
       <c r="C2">
-        <v>0.4323199663764967</v>
+        <v>0.1507818367487914</v>
       </c>
       <c r="D2">
-        <v>0.009635930094672673</v>
+        <v>0.007246546123949926</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.045144057899421</v>
+        <v>0.7263384973622777</v>
       </c>
       <c r="G2">
-        <v>1.003596222612444</v>
+        <v>0.5877646244443184</v>
       </c>
       <c r="H2">
-        <v>0.5712269219260691</v>
+        <v>0.6321235378771206</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.80172340118024</v>
+        <v>0.8925796379877795</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.675166948896646</v>
+        <v>0.5394337338853461</v>
       </c>
       <c r="C3">
-        <v>0.3856254786703062</v>
+        <v>0.1351597823191923</v>
       </c>
       <c r="D3">
-        <v>0.009954721997756266</v>
+        <v>0.007173905759168875</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9291979610338927</v>
+        <v>0.7021404881570845</v>
       </c>
       <c r="G3">
-        <v>0.8868646953376924</v>
+        <v>0.5622255763363029</v>
       </c>
       <c r="H3">
-        <v>0.5248388316794177</v>
+        <v>0.6254983670851715</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.380196792456701</v>
+        <v>0.7942143616790389</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.521756108789333</v>
+        <v>0.4931110360349464</v>
       </c>
       <c r="C4">
-        <v>0.3568613925579314</v>
+        <v>0.1254945084185124</v>
       </c>
       <c r="D4">
-        <v>0.01015499494011962</v>
+        <v>0.007129622630934307</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8606309447062443</v>
+        <v>0.6878717134335375</v>
       </c>
       <c r="G4">
-        <v>0.8179688765343087</v>
+        <v>0.5470701036518761</v>
       </c>
       <c r="H4">
-        <v>0.4978499604642366</v>
+        <v>0.6218670413900043</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.131237067173089</v>
+        <v>0.7343662059867597</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.459325007947569</v>
+        <v>0.474230932035141</v>
       </c>
       <c r="C5">
-        <v>0.3451142672871299</v>
+        <v>0.1215376569476803</v>
       </c>
       <c r="D5">
-        <v>0.0102376564556792</v>
+        <v>0.007111667324453563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8332791168623572</v>
+        <v>0.6822039177746149</v>
       </c>
       <c r="G5">
-        <v>0.7905146117188195</v>
+        <v>0.5410247882208949</v>
       </c>
       <c r="H5">
-        <v>0.4871922227243743</v>
+        <v>0.6204964398665709</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.031826655579721</v>
+        <v>0.7101088043355759</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.448962576853347</v>
+        <v>0.4710957343623932</v>
       </c>
       <c r="C6">
-        <v>0.3431620619427491</v>
+        <v>0.1208795345456224</v>
       </c>
       <c r="D6">
-        <v>0.01025144346244744</v>
+        <v>0.007108691633787245</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8287710597142421</v>
+        <v>0.6812716176143141</v>
       </c>
       <c r="G6">
-        <v>0.7859912599347183</v>
+        <v>0.5400288159435291</v>
       </c>
       <c r="H6">
-        <v>0.4854421098219177</v>
+        <v>0.6202754305314926</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.01543150106923</v>
+        <v>0.7060886119116958</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.520913839107465</v>
+        <v>0.4928564243364235</v>
       </c>
       <c r="C7">
-        <v>0.3567030728822829</v>
+        <v>0.1254412181885982</v>
       </c>
       <c r="D7">
-        <v>0.01015610559908353</v>
+        <v>0.007129380098508165</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8602597683592279</v>
+        <v>0.687794682616655</v>
       </c>
       <c r="G7">
-        <v>0.8175961996526553</v>
+        <v>0.546988047350581</v>
       </c>
       <c r="H7">
-        <v>0.4977048920969622</v>
+        <v>0.6218481156248856</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.129888641084506</v>
+        <v>0.7340385397209275</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.839253939980722</v>
+        <v>0.5888510565893625</v>
       </c>
       <c r="C8">
-        <v>0.4162379557836573</v>
+        <v>0.1454107041364239</v>
       </c>
       <c r="D8">
-        <v>0.009744845878982389</v>
+        <v>0.007221439714875544</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.004576801018501</v>
+        <v>0.7178720427961593</v>
       </c>
       <c r="G8">
-        <v>0.9627218021504262</v>
+        <v>0.578848755981042</v>
       </c>
       <c r="H8">
-        <v>0.5549000828874995</v>
+        <v>0.629748217223451</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.654049230404951</v>
+        <v>0.8585453317533336</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.468839971029922</v>
+        <v>0.7769431924256196</v>
       </c>
       <c r="C9">
-        <v>0.5323200665864078</v>
+        <v>0.1839803221987779</v>
       </c>
       <c r="D9">
-        <v>0.008979885346763083</v>
+        <v>0.007404068904229177</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.311974244872644</v>
+        <v>0.7815859350519929</v>
       </c>
       <c r="G9">
-        <v>1.27329015449493</v>
+        <v>0.6455694448135603</v>
       </c>
       <c r="H9">
-        <v>0.6806995217547467</v>
+        <v>0.6487320463130573</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.784428543154178</v>
+        <v>1.10737509715689</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.936973136604763</v>
+        <v>0.9150215292424377</v>
       </c>
       <c r="C10">
-        <v>0.6172507865635168</v>
+        <v>0.2119479289073922</v>
       </c>
       <c r="D10">
-        <v>0.008453427634892208</v>
+        <v>0.007538999927181322</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.558442646733539</v>
+        <v>0.8313694635904483</v>
       </c>
       <c r="G10">
-        <v>1.523670252451836</v>
+        <v>0.6972793110291207</v>
       </c>
       <c r="H10">
-        <v>0.7843250788343141</v>
+        <v>0.6648490679119448</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.721297799964887</v>
+        <v>1.293506760867913</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.151665439790293</v>
+        <v>0.9778094000730562</v>
       </c>
       <c r="C11">
-        <v>0.6557895600500956</v>
+        <v>0.2245890779925048</v>
       </c>
       <c r="D11">
-        <v>0.00822478132502269</v>
+        <v>0.007600445563582525</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.676617362986534</v>
+        <v>0.8546821875950599</v>
       </c>
       <c r="G11">
-        <v>1.644146565311985</v>
+        <v>0.7214104444005329</v>
       </c>
       <c r="H11">
-        <v>0.8346885385593339</v>
+        <v>0.6726612419012383</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.184690484737331</v>
+        <v>1.37900828285386</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.233252754343198</v>
+        <v>1.001581438519111</v>
       </c>
       <c r="C12">
-        <v>0.6703630725257028</v>
+        <v>0.2293640320962993</v>
       </c>
       <c r="D12">
-        <v>0.008140093348346866</v>
+        <v>0.007623714702337026</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.722400021100583</v>
+        <v>0.8636073365930628</v>
       </c>
       <c r="G12">
-        <v>1.690895403123193</v>
+        <v>0.7306374645151266</v>
       </c>
       <c r="H12">
-        <v>0.8543050538878845</v>
+        <v>0.6756892905970346</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.367195230635389</v>
+        <v>1.411513248162692</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.215668101812128</v>
+        <v>0.9964619117529878</v>
       </c>
       <c r="C13">
-        <v>0.6672254661660304</v>
+        <v>0.228336197006513</v>
       </c>
       <c r="D13">
-        <v>0.008158242088034839</v>
+        <v>0.007618703359412393</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.712491044389267</v>
+        <v>0.8616808045237008</v>
       </c>
       <c r="G13">
-        <v>1.680773767998801</v>
+        <v>0.7286462723030809</v>
       </c>
       <c r="H13">
-        <v>0.8500545671902557</v>
+        <v>0.6750340335305793</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.327543982218444</v>
+        <v>1.404506924319733</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.158371703249202</v>
+        <v>0.9797652321169608</v>
       </c>
       <c r="C14">
-        <v>0.6569889932216313</v>
+        <v>0.2249821578192268</v>
       </c>
       <c r="D14">
-        <v>0.008217773854989119</v>
+        <v>0.007602359955203752</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.680362190421974</v>
+        <v>0.8554145105720181</v>
       </c>
       <c r="G14">
-        <v>1.647968854681324</v>
+        <v>0.7221677620656237</v>
       </c>
       <c r="H14">
-        <v>0.836290951897638</v>
+        <v>0.6729089596481117</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.199552736445426</v>
+        <v>1.381679885278785</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.123314568163892</v>
+        <v>0.9695374411380158</v>
       </c>
       <c r="C15">
-        <v>0.6507159405021525</v>
+        <v>0.2229261447980662</v>
       </c>
       <c r="D15">
-        <v>0.008254496682450707</v>
+        <v>0.007592349041914304</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.660822167923399</v>
+        <v>0.8515889139495414</v>
       </c>
       <c r="G15">
-        <v>1.628027713236179</v>
+        <v>0.7182111378235732</v>
       </c>
       <c r="H15">
-        <v>0.8279340148370125</v>
+        <v>0.6716163934049746</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.122129145610955</v>
+        <v>1.367714500842069</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.922980797202399</v>
+        <v>0.9109176276140829</v>
       </c>
       <c r="C16">
-        <v>0.6147298038006284</v>
+        <v>0.211120138571772</v>
       </c>
       <c r="D16">
-        <v>0.008468615705867322</v>
+        <v>0.007534984893631247</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.550854591881048</v>
+        <v>0.8298594391993248</v>
       </c>
       <c r="G16">
-        <v>1.515943850657436</v>
+        <v>0.6957146608185667</v>
       </c>
       <c r="H16">
-        <v>0.7811051680681942</v>
+        <v>0.664348248215731</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.69189389012098</v>
+        <v>1.287936413814322</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.800555633122542</v>
+        <v>0.8749493671323876</v>
       </c>
       <c r="C17">
-        <v>0.592625585180599</v>
+        <v>0.2038564864620582</v>
       </c>
       <c r="D17">
-        <v>0.008602967448307908</v>
+        <v>0.007499804385862063</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.485049226528162</v>
+        <v>0.8167006429484616</v>
       </c>
       <c r="G17">
-        <v>1.448986396079704</v>
+        <v>0.6820707064721887</v>
       </c>
       <c r="H17">
-        <v>0.7532558538386525</v>
+        <v>0.6600130007196583</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.438520105936334</v>
+        <v>1.239213266832053</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.730301157175006</v>
+        <v>0.8542591021897579</v>
       </c>
       <c r="C18">
-        <v>0.5799033207124751</v>
+        <v>0.1996709743495728</v>
       </c>
       <c r="D18">
-        <v>0.008681239714295685</v>
+        <v>0.007479576057416892</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.447758347087131</v>
+        <v>0.8091946514182808</v>
       </c>
       <c r="G18">
-        <v>1.411080607840574</v>
+        <v>0.6742801989161649</v>
       </c>
       <c r="H18">
-        <v>0.7375354032058681</v>
+        <v>0.657564664540871</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.296162337795437</v>
+        <v>1.211266557967676</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.70654066254923</v>
+        <v>0.8472533688648696</v>
       </c>
       <c r="C19">
-        <v>0.5755944413417637</v>
+        <v>0.198252525722296</v>
       </c>
       <c r="D19">
-        <v>0.00870790330895943</v>
+        <v>0.007472728482948554</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.435223819638395</v>
+        <v>0.8066639618547384</v>
       </c>
       <c r="G19">
-        <v>1.39834556298544</v>
+        <v>0.6716522297653853</v>
       </c>
       <c r="H19">
-        <v>0.7322616412745617</v>
+        <v>0.6567434403077357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.248499606147661</v>
+        <v>1.201817358531656</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.813571022249278</v>
+        <v>0.8787784910808227</v>
       </c>
       <c r="C20">
-        <v>0.5949795282354842</v>
+        <v>0.2046305084363382</v>
       </c>
       <c r="D20">
-        <v>0.008588560084687558</v>
+        <v>0.007503548792641368</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.491995434516085</v>
+        <v>0.8180949305574359</v>
       </c>
       <c r="G20">
-        <v>1.456050178489335</v>
+        <v>0.6835172036511494</v>
       </c>
       <c r="H20">
-        <v>0.7561891078246674</v>
+        <v>0.6604698141427434</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.465132314635852</v>
+        <v>1.244391843919942</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.175192947053574</v>
+        <v>0.9846695765971276</v>
       </c>
       <c r="C21">
-        <v>0.6599963205489416</v>
+        <v>0.2259676474920411</v>
       </c>
       <c r="D21">
-        <v>0.008200233495779585</v>
+        <v>0.007607160445889605</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.689769735358809</v>
+        <v>0.8572524261045231</v>
       </c>
       <c r="G21">
-        <v>1.657572225848014</v>
+        <v>0.7240682266913154</v>
       </c>
       <c r="H21">
-        <v>0.8403181353434377</v>
+        <v>0.6735312471466557</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.236939884139716</v>
+        <v>1.388381216509941</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.413225589365254</v>
+        <v>1.053849706881579</v>
       </c>
       <c r="C22">
-        <v>0.7023630269076193</v>
+        <v>0.2398427841956163</v>
       </c>
       <c r="D22">
-        <v>0.007957689471707496</v>
+        <v>0.007674879014828662</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.825146595774044</v>
+        <v>0.8834108796017404</v>
       </c>
       <c r="G22">
-        <v>1.795963096854621</v>
+        <v>0.7510906832899877</v>
       </c>
       <c r="H22">
-        <v>0.8985291364618888</v>
+        <v>0.6824745024631511</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.783576989446516</v>
+        <v>1.483233090979823</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.28601717820618</v>
+        <v>1.016929598416482</v>
       </c>
       <c r="C23">
-        <v>0.6797662130561548</v>
+        <v>0.2324438457050064</v>
       </c>
       <c r="D23">
-        <v>0.008085982703397221</v>
+        <v>0.007638738746685192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.752270528387257</v>
+        <v>0.8693973083705941</v>
       </c>
       <c r="G23">
-        <v>1.721418843136206</v>
+        <v>0.7366201613218095</v>
       </c>
       <c r="H23">
-        <v>0.867133812424413</v>
+        <v>0.6776638727093598</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.487244299447298</v>
+        <v>1.432537806068098</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.807686364822246</v>
+        <v>0.8770473803151049</v>
       </c>
       <c r="C24">
-        <v>0.5939153545782005</v>
+        <v>0.2042806028024984</v>
       </c>
       <c r="D24">
-        <v>0.008595070465089449</v>
+        <v>0.007501855954256342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.488853378976088</v>
+        <v>0.8174643889132938</v>
       </c>
       <c r="G24">
-        <v>1.452854821182768</v>
+        <v>0.6828630755001086</v>
       </c>
       <c r="H24">
-        <v>0.7548620847948655</v>
+        <v>0.6602631516211943</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.453090742765809</v>
+        <v>1.242050407753183</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.297714602859287</v>
+        <v>0.7260777650667478</v>
       </c>
       <c r="C25">
-        <v>0.5009787766014426</v>
+        <v>0.1736104302616468</v>
       </c>
       <c r="D25">
-        <v>0.009181475999048061</v>
+        <v>0.007354494293874581</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.225659699641014</v>
+        <v>0.7638339452725944</v>
       </c>
       <c r="G25">
-        <v>1.185891238445066</v>
+        <v>0.6270548626269772</v>
       </c>
       <c r="H25">
-        <v>0.6449345346842961</v>
+        <v>0.6432183852403455</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.46377161496882</v>
+        <v>1.039512179900314</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_124/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6148512105072825</v>
+        <v>1.925785015812266</v>
       </c>
       <c r="C2">
-        <v>0.1507818367487914</v>
+        <v>0.4323199663764967</v>
       </c>
       <c r="D2">
-        <v>0.007246546123949926</v>
+        <v>0.009635930094793466</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7263384973622777</v>
+        <v>1.045144057899435</v>
       </c>
       <c r="G2">
-        <v>0.5877646244443184</v>
+        <v>1.003596222612401</v>
       </c>
       <c r="H2">
-        <v>0.6321235378771206</v>
+        <v>0.5712269219260548</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8925796379877795</v>
+        <v>2.80172340118024</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5394337338853461</v>
+        <v>1.675166948896646</v>
       </c>
       <c r="C3">
-        <v>0.1351597823191923</v>
+        <v>0.3856254786703346</v>
       </c>
       <c r="D3">
-        <v>0.007173905759168875</v>
+        <v>0.009954721997653238</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7021404881570845</v>
+        <v>0.9291979610338927</v>
       </c>
       <c r="G3">
-        <v>0.5622255763363029</v>
+        <v>0.8868646953376924</v>
       </c>
       <c r="H3">
-        <v>0.6254983670851715</v>
+        <v>0.5248388316794319</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7942143616790389</v>
+        <v>2.380196792456715</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4931110360349464</v>
+        <v>1.521756108789333</v>
       </c>
       <c r="C4">
-        <v>0.1254945084185124</v>
+        <v>0.3568613925579314</v>
       </c>
       <c r="D4">
-        <v>0.007129622630934307</v>
+        <v>0.01015499494012495</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6878717134335375</v>
+        <v>0.8606309447062301</v>
       </c>
       <c r="G4">
-        <v>0.5470701036518761</v>
+        <v>0.8179688765343514</v>
       </c>
       <c r="H4">
-        <v>0.6218670413900043</v>
+        <v>0.4978499604642366</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7343662059867597</v>
+        <v>2.13123706717306</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.474230932035141</v>
+        <v>1.459325007947484</v>
       </c>
       <c r="C5">
-        <v>0.1215376569476803</v>
+        <v>0.3451142672871441</v>
       </c>
       <c r="D5">
-        <v>0.007111667324453563</v>
+        <v>0.0102376564553861</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6822039177746149</v>
+        <v>0.833279116862343</v>
       </c>
       <c r="G5">
-        <v>0.5410247882208949</v>
+        <v>0.7905146117188053</v>
       </c>
       <c r="H5">
-        <v>0.6204964398665709</v>
+        <v>0.4871922227243743</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7101088043355759</v>
+        <v>2.031826655579735</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4710957343623932</v>
+        <v>1.448962576853148</v>
       </c>
       <c r="C6">
-        <v>0.1208795345456224</v>
+        <v>0.3431620619427491</v>
       </c>
       <c r="D6">
-        <v>0.007108691633787245</v>
+        <v>0.01025144346251672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6812716176143141</v>
+        <v>0.8287710597142564</v>
       </c>
       <c r="G6">
-        <v>0.5400288159435291</v>
+        <v>0.7859912599346615</v>
       </c>
       <c r="H6">
-        <v>0.6202754305314926</v>
+        <v>0.4854421098219177</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7060886119116958</v>
+        <v>2.015431501069216</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4928564243364235</v>
+        <v>1.520913839107521</v>
       </c>
       <c r="C7">
-        <v>0.1254412181885982</v>
+        <v>0.356703072882425</v>
       </c>
       <c r="D7">
-        <v>0.007129380098508165</v>
+        <v>0.01015610559908886</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.687794682616655</v>
+        <v>0.8602597683592279</v>
       </c>
       <c r="G7">
-        <v>0.546988047350581</v>
+        <v>0.8175961996526411</v>
       </c>
       <c r="H7">
-        <v>0.6218481156248856</v>
+        <v>0.4977048920968485</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7340385397209275</v>
+        <v>2.129888641084506</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5888510565893625</v>
+        <v>1.839253939980665</v>
       </c>
       <c r="C8">
-        <v>0.1454107041364239</v>
+        <v>0.4162379557836005</v>
       </c>
       <c r="D8">
-        <v>0.007221439714875544</v>
+        <v>0.009744845878865149</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7178720427961593</v>
+        <v>1.004576801018487</v>
       </c>
       <c r="G8">
-        <v>0.578848755981042</v>
+        <v>0.9627218021504262</v>
       </c>
       <c r="H8">
-        <v>0.629748217223451</v>
+        <v>0.5549000828874995</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8585453317533336</v>
+        <v>2.654049230404937</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7769431924256196</v>
+        <v>2.468839971029922</v>
       </c>
       <c r="C9">
-        <v>0.1839803221987779</v>
+        <v>0.5323200665861521</v>
       </c>
       <c r="D9">
-        <v>0.007404068904229177</v>
+        <v>0.008979885346679595</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7815859350519929</v>
+        <v>1.311974244872644</v>
       </c>
       <c r="G9">
-        <v>0.6455694448135603</v>
+        <v>1.27329015449493</v>
       </c>
       <c r="H9">
-        <v>0.6487320463130573</v>
+        <v>0.6806995217547467</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.10737509715689</v>
+        <v>3.784428543154178</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9150215292424377</v>
+        <v>2.936973136604593</v>
       </c>
       <c r="C10">
-        <v>0.2119479289073922</v>
+        <v>0.6172507865635168</v>
       </c>
       <c r="D10">
-        <v>0.007538999927181322</v>
+        <v>0.008453427634893984</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8313694635904483</v>
+        <v>1.558442646733553</v>
       </c>
       <c r="G10">
-        <v>0.6972793110291207</v>
+        <v>1.523670252451808</v>
       </c>
       <c r="H10">
-        <v>0.6648490679119448</v>
+        <v>0.7843250788343141</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.293506760867913</v>
+        <v>4.721297799964915</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9778094000730562</v>
+        <v>3.151665439790293</v>
       </c>
       <c r="C11">
-        <v>0.2245890779925048</v>
+        <v>0.6557895600502945</v>
       </c>
       <c r="D11">
-        <v>0.007600445563582525</v>
+        <v>0.008224781325040453</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8546821875950599</v>
+        <v>1.676617362986519</v>
       </c>
       <c r="G11">
-        <v>0.7214104444005329</v>
+        <v>1.644146565312013</v>
       </c>
       <c r="H11">
-        <v>0.6726612419012383</v>
+        <v>0.834688538559277</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.37900828285386</v>
+        <v>5.184690484737303</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.001581438519111</v>
+        <v>3.233252754343084</v>
       </c>
       <c r="C12">
-        <v>0.2293640320962993</v>
+        <v>0.6703630725259018</v>
       </c>
       <c r="D12">
-        <v>0.007623714702337026</v>
+        <v>0.008140093348236732</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8636073365930628</v>
+        <v>1.722400021100597</v>
       </c>
       <c r="G12">
-        <v>0.7306374645151266</v>
+        <v>1.690895403123051</v>
       </c>
       <c r="H12">
-        <v>0.6756892905970346</v>
+        <v>0.8543050538879982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.411513248162692</v>
+        <v>5.367195230635375</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9964619117529878</v>
+        <v>3.215668101811957</v>
       </c>
       <c r="C13">
-        <v>0.228336197006513</v>
+        <v>0.6672254661663146</v>
       </c>
       <c r="D13">
-        <v>0.007618703359412393</v>
+        <v>0.008158242087949574</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8616808045237008</v>
+        <v>1.712491044389253</v>
       </c>
       <c r="G13">
-        <v>0.7286462723030809</v>
+        <v>1.680773767998829</v>
       </c>
       <c r="H13">
-        <v>0.6750340335305793</v>
+        <v>0.8500545671902557</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.404506924319733</v>
+        <v>5.32754398221843</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9797652321169608</v>
+        <v>3.158371703249202</v>
       </c>
       <c r="C14">
-        <v>0.2249821578192268</v>
+        <v>0.6569889932219155</v>
       </c>
       <c r="D14">
-        <v>0.007602359955203752</v>
+        <v>0.008217773855085042</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8554145105720181</v>
+        <v>1.680362190422002</v>
       </c>
       <c r="G14">
-        <v>0.7221677620656237</v>
+        <v>1.647968854681352</v>
       </c>
       <c r="H14">
-        <v>0.6729089596481117</v>
+        <v>0.8362909518977517</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.381679885278785</v>
+        <v>5.199552736445469</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9695374411380158</v>
+        <v>3.123314568163948</v>
       </c>
       <c r="C15">
-        <v>0.2229261447980662</v>
+        <v>0.6507159405020673</v>
       </c>
       <c r="D15">
-        <v>0.007592349041914304</v>
+        <v>0.008254496682443602</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8515889139495414</v>
+        <v>1.660822167923399</v>
       </c>
       <c r="G15">
-        <v>0.7182111378235732</v>
+        <v>1.628027713236179</v>
       </c>
       <c r="H15">
-        <v>0.6716163934049746</v>
+        <v>0.8279340148371261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.367714500842069</v>
+        <v>5.122129145610955</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9109176276140829</v>
+        <v>2.922980797202513</v>
       </c>
       <c r="C16">
-        <v>0.211120138571772</v>
+        <v>0.6147298038006568</v>
       </c>
       <c r="D16">
-        <v>0.007534984893631247</v>
+        <v>0.008468615705846005</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8298594391993248</v>
+        <v>1.550854591881034</v>
       </c>
       <c r="G16">
-        <v>0.6957146608185667</v>
+        <v>1.515943850657408</v>
       </c>
       <c r="H16">
-        <v>0.664348248215731</v>
+        <v>0.7811051680681942</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.287936413814322</v>
+        <v>4.691893890121008</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8749493671323876</v>
+        <v>2.800555633122542</v>
       </c>
       <c r="C17">
-        <v>0.2038564864620582</v>
+        <v>0.592625585180258</v>
       </c>
       <c r="D17">
-        <v>0.007499804385862063</v>
+        <v>0.008602967448231524</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8167006429484616</v>
+        <v>1.485049226528176</v>
       </c>
       <c r="G17">
-        <v>0.6820707064721887</v>
+        <v>1.448986396079761</v>
       </c>
       <c r="H17">
-        <v>0.6600130007196583</v>
+        <v>0.7532558538387661</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.239213266832053</v>
+        <v>4.438520105936348</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8542591021897579</v>
+        <v>2.73030115717512</v>
       </c>
       <c r="C18">
-        <v>0.1996709743495728</v>
+        <v>0.5799033207125888</v>
       </c>
       <c r="D18">
-        <v>0.007479576057416892</v>
+        <v>0.008681239714181999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8091946514182808</v>
+        <v>1.447758347087117</v>
       </c>
       <c r="G18">
-        <v>0.6742801989161649</v>
+        <v>1.411080607840631</v>
       </c>
       <c r="H18">
-        <v>0.657564664540871</v>
+        <v>0.7375354032058681</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.211266557967676</v>
+        <v>4.296162337795408</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8472533688648696</v>
+        <v>2.70654066254923</v>
       </c>
       <c r="C19">
-        <v>0.198252525722296</v>
+        <v>0.5755944413415932</v>
       </c>
       <c r="D19">
-        <v>0.007472728482948554</v>
+        <v>0.008707903308927456</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8066639618547384</v>
+        <v>1.435223819638409</v>
       </c>
       <c r="G19">
-        <v>0.6716522297653853</v>
+        <v>1.398345562985384</v>
       </c>
       <c r="H19">
-        <v>0.6567434403077357</v>
+        <v>0.732261641274448</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.201817358531656</v>
+        <v>4.248499606147661</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8787784910808227</v>
+        <v>2.813571022249221</v>
       </c>
       <c r="C20">
-        <v>0.2046305084363382</v>
+        <v>0.5949795282354842</v>
       </c>
       <c r="D20">
-        <v>0.007503548792641368</v>
+        <v>0.008588560084854535</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8180949305574359</v>
+        <v>1.491995434516099</v>
       </c>
       <c r="G20">
-        <v>0.6835172036511494</v>
+        <v>1.456050178489363</v>
       </c>
       <c r="H20">
-        <v>0.6604698141427434</v>
+        <v>0.7561891078246674</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.244391843919942</v>
+        <v>4.465132314635852</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9846695765971276</v>
+        <v>3.175192947053574</v>
       </c>
       <c r="C21">
-        <v>0.2259676474920411</v>
+        <v>0.6599963205489701</v>
       </c>
       <c r="D21">
-        <v>0.007607160445889605</v>
+        <v>0.00820023349567478</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8572524261045231</v>
+        <v>1.689769735358766</v>
       </c>
       <c r="G21">
-        <v>0.7240682266913154</v>
+        <v>1.657572225847929</v>
       </c>
       <c r="H21">
-        <v>0.6735312471466557</v>
+        <v>0.8403181353434093</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.388381216509941</v>
+        <v>5.236939884139744</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.053849706881579</v>
+        <v>3.413225589365084</v>
       </c>
       <c r="C22">
-        <v>0.2398427841956163</v>
+        <v>0.7023630269076193</v>
       </c>
       <c r="D22">
-        <v>0.007674879014828662</v>
+        <v>0.007957689471936646</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8834108796017404</v>
+        <v>1.825146595774029</v>
       </c>
       <c r="G22">
-        <v>0.7510906832899877</v>
+        <v>1.795963096854564</v>
       </c>
       <c r="H22">
-        <v>0.6824745024631511</v>
+        <v>0.8985291364617751</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.483233090979823</v>
+        <v>5.783576989446544</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.016929598416482</v>
+        <v>3.286017178206123</v>
       </c>
       <c r="C23">
-        <v>0.2324438457050064</v>
+        <v>0.6797662130563538</v>
       </c>
       <c r="D23">
-        <v>0.007638738746685192</v>
+        <v>0.008085982703310179</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8693973083705941</v>
+        <v>1.752270528387285</v>
       </c>
       <c r="G23">
-        <v>0.7366201613218095</v>
+        <v>1.721418843136206</v>
       </c>
       <c r="H23">
-        <v>0.6776638727093598</v>
+        <v>0.8671338124243846</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.432537806068098</v>
+        <v>5.487244299447255</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8770473803151049</v>
+        <v>2.807686364822246</v>
       </c>
       <c r="C24">
-        <v>0.2042806028024984</v>
+        <v>0.5939153545782005</v>
       </c>
       <c r="D24">
-        <v>0.007501855954256342</v>
+        <v>0.008595070464970433</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8174643889132938</v>
+        <v>1.488853378976074</v>
       </c>
       <c r="G24">
-        <v>0.6828630755001086</v>
+        <v>1.45285482118274</v>
       </c>
       <c r="H24">
-        <v>0.6602631516211943</v>
+        <v>0.7548620847947234</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.242050407753183</v>
+        <v>4.453090742765838</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7260777650667478</v>
+        <v>2.29771460285923</v>
       </c>
       <c r="C25">
-        <v>0.1736104302616468</v>
+        <v>0.5009787766016984</v>
       </c>
       <c r="D25">
-        <v>0.007354494293874581</v>
+        <v>0.009181475999270106</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7638339452725944</v>
+        <v>1.225659699641014</v>
       </c>
       <c r="G25">
-        <v>0.6270548626269772</v>
+        <v>1.185891238445066</v>
       </c>
       <c r="H25">
-        <v>0.6432183852403455</v>
+        <v>0.6449345346842676</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.039512179900314</v>
+        <v>3.46377161496882</v>
       </c>
       <c r="N25">
         <v>0</v>
